--- a/xlsx/c_SoundData.xlsx
+++ b/xlsx/c_SoundData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4602961-3E8E-40FF-BFDB-0A375E9271B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108F9A89-C598-4495-9EDE-023AD3187336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30870" yWindow="2640" windowWidth="21645" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30945" yWindow="2400" windowWidth="19095" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -49,8 +49,38 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>魚を噛み込む時
+    <t>魚を噛み込む音（小）
 シャキシャキ感が良い</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魚を噛み込む音（中）
+シャキシャキ感が良い</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魚を噛み込む音（大）
+シャキシャキ感が良い</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>河豚に弾かれたとき</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>クラゲに麻痺された</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>貝が開くとき</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>貝が閉じるとき</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>クラゲジャンプする時</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -58,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -84,6 +114,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -93,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -116,11 +153,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -132,6 +180,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1292,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1316,7 +1371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -1324,55 +1379,120 @@
         <v>4</v>
       </c>
       <c r="C2" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>2</v>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="C4" s="6">
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+    <row r="12" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+    <row r="13" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
     </row>
-    <row r="7" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+    <row r="14" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/xlsx/c_SoundData.xlsx
+++ b/xlsx/c_SoundData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108F9A89-C598-4495-9EDE-023AD3187336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B343B14A-C62D-487A-B7AF-5C9CA0140464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30945" yWindow="2400" windowWidth="19095" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8295" yWindow="2505" windowWidth="19095" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>ホーム画面、画面クリックして、魚が泳ぐSE</t>
+  </si>
+  <si>
     <t>maxCount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魚を噛み込む音（小）
+シャキシャキ感が良い</t>
+  </si>
+  <si>
+    <t>魚を噛み込む音（中）
+シャキシャキ感が良い</t>
+  </si>
+  <si>
+    <t>魚を噛み込む音（大）
+シャキシャキ感が良い</t>
   </si>
   <si>
     <r>
@@ -37,69 +51,49 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Yu Gothic"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="128"/>
       </rPr>
       <t>回復</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>河豚に弾かれたとき</t>
+  </si>
+  <si>
+    <t>クラゲに麻痺された</t>
+  </si>
+  <si>
+    <t>貝が開くとき</t>
+  </si>
+  <si>
+    <t>貝が閉じるとき</t>
+  </si>
+  <si>
+    <t>クラゲジャンプする時</t>
   </si>
   <si>
     <t>ボタンクリック時</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>魚を噛み込む音（小）
-シャキシャキ感が良い</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>コイン加算する時SE、ループしていただき、こちらで止める</t>
   </si>
   <si>
-    <t>魚を噛み込む音（中）
-シャキシャキ感が良い</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>ダイモンド加算する時SE、ループしていただき、こちらで止める</t>
   </si>
   <si>
-    <t>魚を噛み込む音（大）
-シャキシャキ感が良い</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>河豚に弾かれたとき</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>クラゲに麻痺された</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>貝が開くとき</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>貝が閉じるとき</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>クラゲジャンプする時</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>経験値加算する時SE、ループしていただき、こちらで止める</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -111,15 +105,28 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Yu Gothic"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -140,25 +147,60 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color rgb="FFAAAAAA"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color rgb="FFAAAAAA"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color rgb="FFAAAAAA"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color rgb="FFAAAAAA"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
       </right>
       <top/>
       <bottom/>
@@ -168,25 +210,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1347,155 +1418,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
-    <row r="2" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="4" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="C2" s="6">
-        <v>3</v>
-      </c>
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
-    <row r="3" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="4">
+    <row r="7" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="13">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="15">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="15">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6">
-        <v>2</v>
-      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
-    <row r="4" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6">
-        <v>2</v>
-      </c>
+    <row r="12" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
-    <row r="5" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2</v>
-      </c>
+    <row r="13" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16">
+        <v>1002</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="16">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
-    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="10">
-        <v>2</v>
-      </c>
+    <row r="14" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
+        <v>1003</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="16">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
-    <row r="7" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="4">
-        <v>1000</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="6">
+    <row r="15" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
+        <v>1004</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
